--- a/admin/production/uploads/filemauKHKG.xlsx
+++ b/admin/production/uploads/filemauKHKG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>STT</t>
   </si>
@@ -45,61 +45,13 @@
     <t>Lưu ý</t>
   </si>
   <si>
-    <t>Tạp dề</t>
-  </si>
-  <si>
     <t>https://mobile.yangkeduo.com/goods2.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=HulHuqtv3IDEl9DFFidplePRDPjoVjlH&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6JN2X7IBCFR6QGSQON5VCVMW5LEA&amp;goods_id=326788273894</t>
   </si>
   <si>
-    <t>Đã nhận</t>
+    <t>9852437809104</t>
   </si>
   <si>
-    <t>JT5163725253101</t>
-  </si>
-  <si>
-    <t>Dụng cụ tập thể dục</t>
-  </si>
-  <si>
-    <t>https://mobile.yangkeduo.com/goods1.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=FTh8Vkn3DAYn1HZj0swzbonVrgevu9Uf&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6ITVHYQI5PTKP7BH33JXKBD37D4Q&amp;goods_id=353367786333</t>
-  </si>
-  <si>
-    <t>Áo tập thể dục</t>
-  </si>
-  <si>
-    <t>https://mobile.yangkeduo.com/goods.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=hL4XUISitL953ka4c33I2yOtsXL2P63X&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6JNLCP76MJGQ7COFKHNFDHFI4IZA&amp;goods_id=164537614110</t>
-  </si>
-  <si>
-    <t>Thuốc tẩy</t>
-  </si>
-  <si>
-    <t>https://mobile.yangkeduo.com/goods1.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=qdlmBwoAMNNRxnwxkYn6M9Jv2Ncjh1gL&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6KEOCSJTJMHLHC5RCEU6JHC7XVEA&amp;goods_id=413613378146</t>
-  </si>
-  <si>
-    <t>Khăn lụa</t>
-  </si>
-  <si>
-    <t>https://mobile.yangkeduo.com/goods1.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=L3oZDDbZs0GxxlPOdxojmfSuGMA42La7&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6ITQHUVK6EUHM6RDCXHRDA6QETFQ&amp;goods_id=342663302628</t>
-  </si>
-  <si>
-    <t>Áo giữ nhiệt</t>
-  </si>
-  <si>
-    <t>https://mobile.yangkeduo.com/goods.html?refer_share_id=J7wxH2jHGKi89iyZfXQObR0wR7i4xlPf&amp;refer_share_channel=copy_link&amp;_x_msgid=8328176205706-msg-2052-o0GeiZrCG-sync_pull0-52bd44&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6LIG23NEPO3SIJ3HMSGRF6SLERJA&amp;_wvx=10&amp;_wv=41729&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;_x_campaign=transfer_app&amp;goods_id=267787539324&amp;_x_resource_show=msg_box</t>
-  </si>
-  <si>
-    <t>777118248377088</t>
-  </si>
-  <si>
-    <t>9852007988154</t>
-  </si>
-  <si>
-    <t>9851934970607</t>
-  </si>
-  <si>
-    <t>777119866042082</t>
-  </si>
-  <si>
-    <t>777120750507235</t>
+    <t>Kẹp tóc</t>
   </si>
 </sst>
 </file>
@@ -118,16 +70,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,12 +90,14 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -227,6 +184,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +409,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -508,106 +469,66 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>22</v>
+      <c r="B2" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -616,23 +537,15 @@
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -644,7 +557,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -656,7 +569,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -668,7 +581,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -680,7 +593,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -692,7 +605,7 @@
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -704,7 +617,7 @@
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -716,7 +629,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -728,7 +641,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -738,7 +651,7 @@
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -748,7 +661,7 @@
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -758,7 +671,7 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -768,7 +681,7 @@
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -778,7 +691,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -788,7 +701,7 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -798,7 +711,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -808,7 +721,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -818,7 +731,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -828,7 +741,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -838,7 +751,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -848,7 +761,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -858,7 +771,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -868,7 +781,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -878,7 +791,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -888,7 +801,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -898,7 +811,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -908,7 +821,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -918,7 +831,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -928,7 +841,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -938,7 +851,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -10581,13 +10494,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/admin/production/uploads/filemauKHKG.xlsx
+++ b/admin/production/uploads/filemauKHKG.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -48,10 +48,22 @@
     <t>https://mobile.yangkeduo.com/goods2.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=HulHuqtv3IDEl9DFFidplePRDPjoVjlH&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6JN2X7IBCFR6QGSQON5VCVMW5LEA&amp;goods_id=326788273894</t>
   </si>
   <si>
-    <t>YT2289046290022</t>
+    <t>JT3026101697858</t>
   </si>
   <si>
-    <t>Cây bóng bàn TF</t>
+    <t>773209287245218</t>
+  </si>
+  <si>
+    <t>773209417338920</t>
+  </si>
+  <si>
+    <t>773209295200910</t>
+  </si>
+  <si>
+    <t>433093590484596</t>
+  </si>
+  <si>
+    <t>THKGMinhGiang</t>
   </si>
 </sst>
 </file>
@@ -115,8 +127,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF6C6C6C"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -171,12 +183,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,11 +227,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -428,7 +454,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -439,7 +465,7 @@
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,17 +510,17 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>9</v>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4">
@@ -504,50 +530,74 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="4"/>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -568,7 +618,7 @@
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="9"/>

--- a/admin/production/uploads/filemauKHKG.xlsx
+++ b/admin/production/uploads/filemauKHKG.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THLogistics\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE1DDBC-03DF-4A7F-AF10-913BB6AC0618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>STT</t>
   </si>
@@ -48,29 +49,20 @@
     <t>https://mobile.yangkeduo.com/goods2.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=HulHuqtv3IDEl9DFFidplePRDPjoVjlH&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_key=K2JOACBKFP2G7WG4OARYM64X6JN2X7IBCFR6QGSQON5VCVMW5LEA&amp;goods_id=326788273894</t>
   </si>
   <si>
-    <t>JT3026101697858</t>
+    <t>S60512953270</t>
   </si>
   <si>
-    <t>773209287245218</t>
+    <t>78667916235631</t>
   </si>
   <si>
-    <t>773209417338920</t>
-  </si>
-  <si>
-    <t>773209295200910</t>
-  </si>
-  <si>
-    <t>433093590484596</t>
-  </si>
-  <si>
-    <t>THKGMinhGiang</t>
+    <t>thiện 20/03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -127,10 +119,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FF6C6C6C"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -160,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -184,17 +181,56 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -203,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -226,12 +262,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -447,14 +489,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -465,7 +507,7 @@
     <col min="8" max="8" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,17 +552,17 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>10</v>
+      <c r="B2" s="11">
+        <v>773212432493924</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4">
@@ -530,84 +572,78 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>9</v>
+      <c r="B3" s="16">
+        <v>78668197542117</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
+      <c r="C3" s="13" t="s">
+        <v>11</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="4">
+      <c r="D3" s="10"/>
+      <c r="E3" s="9">
         <v>1</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="4">
+      <c r="D4" s="10"/>
+      <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>12</v>
+      <c r="B5" s="17" t="s">
+        <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="4">
+      <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="6"/>
       <c r="E7" s="4"/>
       <c r="F7" s="7"/>
@@ -615,11 +651,11 @@
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="7"/>
       <c r="E8" s="9"/>
       <c r="F8" s="7"/>
@@ -627,11 +663,11 @@
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="7"/>
       <c r="E9" s="9"/>
       <c r="F9" s="7"/>
@@ -639,11 +675,11 @@
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="7"/>
       <c r="E10" s="9"/>
       <c r="F10" s="7"/>
@@ -651,11 +687,11 @@
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="7"/>
       <c r="E11" s="9"/>
       <c r="F11" s="7"/>
@@ -666,7 +702,7 @@
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="9"/>
@@ -10561,8 +10597,9 @@
       <c r="H1000" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" display="https://mobile.yangkeduo.com/goods2.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=HulHuqtv3IDEl9DFFidplePRDPjoVjlH&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_k"/>
+    <hyperlink ref="D2" display="https://mobile.yangkeduo.com/goods2.html?_wvx=10&amp;refer_share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;refer_share_id=HulHuqtv3IDEl9DFFidplePRDPjoVjlH&amp;share_uin=JCNCTXVJ43ALS7434LHP647D2I_GEXDA&amp;page_from=101&amp;_wv=41729&amp;refer_share_channel=copy_link&amp;pxq_secret_k" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
